--- a/HRX/Test/test_case.xlsx
+++ b/HRX/Test/test_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="15020" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="15020" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6704" uniqueCount="5427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6706" uniqueCount="5428">
   <si>
     <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -16357,6 +16357,19 @@
     <t>好的</t>
     <rPh sb="0" eb="1">
       <t>hao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没有钱</t>
+    <rPh sb="0" eb="1">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -16730,8 +16743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18074,6 +18087,15 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5427</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">

--- a/HRX/Test/test_case.xlsx
+++ b/HRX/Test/test_case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozintel/Downloads/Tsl_python_progect/local_ml/Chatbot1.0/HRX/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozintel/Downloads/Tsl_python_progect/local_ml/Chatbot_project/Chatbot1.0/HRX/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6706" uniqueCount="5428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6710" uniqueCount="5430">
   <si>
     <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -16370,6 +16370,26 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯呢</t>
+    <rPh sb="0" eb="1">
+      <t>en</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi dao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -16743,8 +16763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18098,82 +18118,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5429</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -18266,6 +18304,8 @@
     <hyperlink ref="B57" r:id="rId3"/>
     <hyperlink ref="B58:B65" r:id="rId4" display="IDClassifier"/>
     <hyperlink ref="B46:B55" r:id="rId5" display="CutDebt"/>
+    <hyperlink ref="B97" r:id="rId6"/>
+    <hyperlink ref="B98" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/HRX/Test/test_case.xlsx
+++ b/HRX/Test/test_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="15020" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="2400" yWindow="480" windowWidth="15020" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6710" uniqueCount="5430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6772" uniqueCount="5460">
   <si>
     <t>node</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -16393,12 +16393,127 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>嗯哼</t>
+    <rPh sb="0" eb="1">
+      <t>en heng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯啦</t>
+    <rPh sb="0" eb="1">
+      <t>en heng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>la</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯呀</t>
+    <rPh sb="0" eb="1">
+      <t>en heng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯呢</t>
+  </si>
+  <si>
+    <t>讲话</t>
+  </si>
+  <si>
+    <t>有话快说</t>
+  </si>
+  <si>
+    <t>请讲</t>
+  </si>
+  <si>
+    <t>手头不太方便</t>
+  </si>
+  <si>
+    <t>我之前处理了一部分</t>
+  </si>
+  <si>
+    <t>没时间处理</t>
+  </si>
+  <si>
+    <t>手头有点紧</t>
+  </si>
+  <si>
+    <t>暂时不太方便</t>
+  </si>
+  <si>
+    <t>晚点跟你沟通哇</t>
+  </si>
+  <si>
+    <t>还没发工资</t>
+  </si>
+  <si>
+    <t>这两天都没找到活</t>
+  </si>
+  <si>
+    <t>现在没啥钱</t>
+  </si>
+  <si>
+    <t>忘了</t>
+  </si>
+  <si>
+    <t>现在国外不方便</t>
+  </si>
+  <si>
+    <t>现在公司不方便</t>
+  </si>
+  <si>
+    <t>弄错了吧</t>
+  </si>
+  <si>
+    <t>这个不清楚</t>
+  </si>
+  <si>
+    <t>不是吧</t>
+  </si>
+  <si>
+    <t>可能想错了</t>
+  </si>
+  <si>
+    <t>搞错了</t>
+  </si>
+  <si>
+    <t>不晓得哇</t>
+  </si>
+  <si>
+    <t>别说了跟我没关系</t>
+  </si>
+  <si>
+    <t>不是哇</t>
+  </si>
+  <si>
+    <t>胡说</t>
+  </si>
+  <si>
+    <t>管你什么事</t>
+  </si>
+  <si>
+    <t>三天不行</t>
+    <rPh sb="0" eb="1">
+      <t>san t</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -16453,6 +16568,10 @@
       <color rgb="FF808080"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -16476,12 +16595,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16761,10 +16887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18150,163 +18276,438 @@
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5430</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5431</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5432</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
+      <c r="B102" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>5433</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
+      <c r="B103" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>5434</v>
+      </c>
+      <c r="D103" s="6">
+        <v>107</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>5435</v>
+      </c>
+      <c r="D104" s="6">
+        <v>107</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>5436</v>
+      </c>
+      <c r="D105" s="6">
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
+      <c r="B106" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>5437</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
+      <c r="B107" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>5438</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
+      <c r="B108" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>5439</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
+      <c r="B109" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>5440</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>5441</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
+      <c r="B111" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>5442</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>5443</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>5444</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>5445</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>5446</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>5439</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>5447</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>5448</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>5449</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>5450</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>5451</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>5452</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>5453</v>
+      </c>
+      <c r="D123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>5454</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>5455</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>5456</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>5457</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
+      <c r="B128" s="5" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>5458</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>5459</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1"/>
-    <hyperlink ref="B56" r:id="rId2"/>
-    <hyperlink ref="B57" r:id="rId3"/>
-    <hyperlink ref="B58:B65" r:id="rId4" display="IDClassifier"/>
-    <hyperlink ref="B46:B55" r:id="rId5" display="CutDebt"/>
-    <hyperlink ref="B97" r:id="rId6"/>
-    <hyperlink ref="B98" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
